--- a/exercise4/results.xlsx
+++ b/exercise4/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Documents\Curso\MECD\ML\Project\mlproject2324\exercise4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E20456-9510-42D9-A682-48CFC1C4055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDE0AA9-0C10-4593-9AEC-2114A419756D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{BF9A32EE-122B-471F-BDD2-09A26386BBD1}"/>
+    <workbookView xWindow="5268" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{BF9A32EE-122B-471F-BDD2-09A26386BBD1}"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn models" sheetId="1" r:id="rId1"/>
@@ -71,8 +71,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -100,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -113,6 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +439,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +509,7 @@
         <v>0.65049999999999997</v>
       </c>
       <c r="G3" s="1">
-        <v>1.6321E-3</v>
+        <v>1.6320999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -508,13 +517,22 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.57250000000000001</v>
+        <v>0.61339999999999995</v>
       </c>
       <c r="C4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>9.8799999999999999E-3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.80037000000000003</v>
+      </c>
+      <c r="E4">
+        <v>1.4159999999999999E-3</v>
+      </c>
+      <c r="F4">
+        <v>0.65029999999999999</v>
+      </c>
+      <c r="G4">
+        <v>1.6320000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/exercise4/results.xlsx
+++ b/exercise4/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Documents\Curso\MECD\ML\Project\mlproject2324\exercise4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDE0AA9-0C10-4593-9AEC-2114A419756D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C479682-9371-4E74-A770-4628DEE5B075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5268" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{BF9A32EE-122B-471F-BDD2-09A26386BBD1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{BF9A32EE-122B-471F-BDD2-09A26386BBD1}"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn models" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
-  <si>
-    <t>No aug</t>
-  </si>
-  <si>
-    <t>self aug</t>
-  </si>
-  <si>
-    <t>Gaussian NB</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>SVM 
 (kernel='rbf', C=1, gamma='scale',random_state=random_state)</t>
@@ -62,25 +53,35 @@
   </si>
   <si>
     <t>std</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>No Aug</t>
+  </si>
+  <si>
+    <t>Aug1_with_rotation_flip</t>
+  </si>
+  <si>
+    <t>Aug1_with_shift_flip</t>
+  </si>
+  <si>
+    <t>Aug2_with_rotation_flip</t>
+  </si>
+  <si>
+    <t>Aug2_with_shift_flip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,9 +109,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -121,7 +121,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD65B6D9-CCA4-4665-BEAC-F65FD89955DB}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,87 +454,176 @@
     <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.57250000000000001</v>
-      </c>
-      <c r="C3">
-        <v>5.9899999999999997E-3</v>
-      </c>
-      <c r="D3">
-        <v>0.57350000000000001</v>
-      </c>
-      <c r="E3">
-        <v>2.2899999999999999E-3</v>
-      </c>
-      <c r="F3">
-        <v>0.65049999999999997</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.6320999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.61339999999999995</v>
-      </c>
-      <c r="C4">
-        <v>9.8799999999999999E-3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.80037000000000003</v>
-      </c>
-      <c r="E4">
-        <v>1.4159999999999999E-3</v>
-      </c>
-      <c r="F4">
-        <v>0.65029999999999999</v>
-      </c>
-      <c r="G4">
-        <v>1.6320000000000001E-2</v>
+      <c r="B3" s="6">
+        <v>57.25</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>57.35</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="F3" s="6">
+        <v>56.4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>37104</v>
+      </c>
+      <c r="B4" s="6">
+        <v>61.34</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="D4" s="7">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="6">
+        <v>81.56</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>37469</v>
+      </c>
+      <c r="B5" s="6">
+        <v>60.75</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="D5" s="6">
+        <v>79.930000000000007</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.28</v>
+      </c>
+      <c r="F5" s="6">
+        <v>81.09</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6" s="6">
+        <v>82.53</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H6">
+        <v>0.46589999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
+        <v>82.83</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H7">
+        <v>0.47320000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>82.17</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>82.25</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.41460000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
